--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pla2g10-Pla2r1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pla2g10-Pla2r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Pla2g10</t>
+  </si>
+  <si>
+    <t>Pla2r1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Pla2g10</t>
-  </si>
-  <si>
-    <t>Pla2r1</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1684906666666667</v>
+        <v>0.3037726666666667</v>
       </c>
       <c r="H2">
-        <v>0.505472</v>
+        <v>0.9113180000000001</v>
       </c>
       <c r="I2">
-        <v>0.3393859962453974</v>
+        <v>0.7806952016420575</v>
       </c>
       <c r="J2">
-        <v>0.3393859962453974</v>
+        <v>0.7806952016420575</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4544046666666666</v>
+        <v>0.389192</v>
       </c>
       <c r="N2">
-        <v>1.363214</v>
+        <v>1.167576</v>
       </c>
       <c r="O2">
-        <v>0.05424682585511192</v>
+        <v>0.04870614651582247</v>
       </c>
       <c r="P2">
-        <v>0.05424682585511193</v>
+        <v>0.04870614651582245</v>
       </c>
       <c r="Q2">
-        <v>0.07656294522311111</v>
+        <v>0.1182258916853333</v>
       </c>
       <c r="R2">
-        <v>0.689066507008</v>
+        <v>1.064033025168</v>
       </c>
       <c r="S2">
-        <v>0.01841061303598774</v>
+        <v>0.03802465487537762</v>
       </c>
       <c r="T2">
-        <v>0.01841061303598774</v>
+        <v>0.03802465487537761</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1684906666666667</v>
+        <v>0.3037726666666667</v>
       </c>
       <c r="H3">
-        <v>0.505472</v>
+        <v>0.9113180000000001</v>
       </c>
       <c r="I3">
-        <v>0.3393859962453974</v>
+        <v>0.7806952016420575</v>
       </c>
       <c r="J3">
-        <v>0.3393859962453974</v>
+        <v>0.7806952016420575</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>16.007391</v>
       </c>
       <c r="O3">
-        <v>0.6369874076789748</v>
+        <v>0.6677581000140957</v>
       </c>
       <c r="P3">
-        <v>0.6369874076789748</v>
+        <v>0.6677581000140956</v>
       </c>
       <c r="Q3">
-        <v>0.8990319937279999</v>
+        <v>1.620869283482</v>
       </c>
       <c r="R3">
-        <v>8.091287943552</v>
+        <v>14.587823551338</v>
       </c>
       <c r="S3">
-        <v>0.2161846059509019</v>
+        <v>0.5213155445386217</v>
       </c>
       <c r="T3">
-        <v>0.2161846059509019</v>
+        <v>0.5213155445386216</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1684906666666667</v>
+        <v>0.3037726666666667</v>
       </c>
       <c r="H4">
-        <v>0.505472</v>
+        <v>0.9113180000000001</v>
       </c>
       <c r="I4">
-        <v>0.3393859962453974</v>
+        <v>0.7806952016420575</v>
       </c>
       <c r="J4">
-        <v>0.3393859962453974</v>
+        <v>0.7806952016420575</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.044517</v>
+        <v>0.2821243333333334</v>
       </c>
       <c r="N4">
-        <v>0.133551</v>
+        <v>0.846373</v>
       </c>
       <c r="O4">
-        <v>0.005314439141452519</v>
+        <v>0.0353069670368663</v>
       </c>
       <c r="P4">
-        <v>0.005314439141452519</v>
+        <v>0.0353069670368663</v>
       </c>
       <c r="Q4">
-        <v>0.007500699008</v>
+        <v>0.08570166106822225</v>
       </c>
       <c r="R4">
-        <v>0.067506291072</v>
+        <v>0.771314949614</v>
       </c>
       <c r="S4">
-        <v>0.001803646222507397</v>
+        <v>0.02756397975021582</v>
       </c>
       <c r="T4">
-        <v>0.001803646222507397</v>
+        <v>0.02756397975021581</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1684906666666667</v>
+        <v>0.3037726666666667</v>
       </c>
       <c r="H5">
-        <v>0.505472</v>
+        <v>0.9113180000000001</v>
       </c>
       <c r="I5">
-        <v>0.3393859962453974</v>
+        <v>0.7806952016420575</v>
       </c>
       <c r="J5">
-        <v>0.3393859962453974</v>
+        <v>0.7806952016420575</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.450641333333333</v>
+        <v>1.812871333333334</v>
       </c>
       <c r="N5">
-        <v>7.351923999999999</v>
+        <v>5.438614</v>
       </c>
       <c r="O5">
-        <v>0.2925575448374341</v>
+        <v>0.2268751073394822</v>
       </c>
       <c r="P5">
-        <v>0.2925575448374341</v>
+        <v>0.2268751073394822</v>
       </c>
       <c r="Q5">
-        <v>0.4129101920142222</v>
+        <v>0.5507007592502223</v>
       </c>
       <c r="R5">
-        <v>3.716191728128</v>
+        <v>4.956306833252</v>
       </c>
       <c r="S5">
-        <v>0.09928993381376008</v>
+        <v>0.1771203076719605</v>
       </c>
       <c r="T5">
-        <v>0.0992899338137601</v>
+        <v>0.1771203076719605</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.3037726666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.9113180000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.7806952016420575</v>
+      </c>
+      <c r="J6">
+        <v>0.7806952016420575</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.1684906666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.505472</v>
-      </c>
-      <c r="I6">
-        <v>0.3393859962453974</v>
-      </c>
-      <c r="J6">
-        <v>0.3393859962453974</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M6">
-        <v>0.09125299999999999</v>
+        <v>0.170629</v>
       </c>
       <c r="N6">
-        <v>0.273759</v>
+        <v>0.511887</v>
       </c>
       <c r="O6">
-        <v>0.01089378248702668</v>
+        <v>0.02135367909373335</v>
       </c>
       <c r="P6">
-        <v>0.01089378248702668</v>
+        <v>0.02135367909373335</v>
       </c>
       <c r="Q6">
-        <v>0.01537527880533333</v>
+        <v>0.05183242634066667</v>
       </c>
       <c r="R6">
-        <v>0.138377509248</v>
+        <v>0.466491837066</v>
       </c>
       <c r="S6">
-        <v>0.003697197222240212</v>
+        <v>0.01667071480588195</v>
       </c>
       <c r="T6">
-        <v>0.003697197222240213</v>
+        <v>0.01667071480588195</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3037726666666667</v>
+        <v>0.08533266666666667</v>
       </c>
       <c r="H7">
-        <v>0.9113180000000001</v>
+        <v>0.255998</v>
       </c>
       <c r="I7">
-        <v>0.6118807121390761</v>
+        <v>0.2193047983579425</v>
       </c>
       <c r="J7">
-        <v>0.611880712139076</v>
+        <v>0.2193047983579425</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4544046666666666</v>
+        <v>0.389192</v>
       </c>
       <c r="N7">
-        <v>1.363214</v>
+        <v>1.167576</v>
       </c>
       <c r="O7">
-        <v>0.05424682585511192</v>
+        <v>0.04870614651582247</v>
       </c>
       <c r="P7">
-        <v>0.05424682585511193</v>
+        <v>0.04870614651582245</v>
       </c>
       <c r="Q7">
-        <v>0.1380357173391111</v>
+        <v>0.03321079120533333</v>
       </c>
       <c r="R7">
-        <v>1.242321456052</v>
+        <v>0.298897120848</v>
       </c>
       <c r="S7">
-        <v>0.03319258643551033</v>
+        <v>0.01068149164044485</v>
       </c>
       <c r="T7">
-        <v>0.03319258643551033</v>
+        <v>0.01068149164044485</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.3037726666666667</v>
+        <v>0.08533266666666667</v>
       </c>
       <c r="H8">
-        <v>0.9113180000000001</v>
+        <v>0.255998</v>
       </c>
       <c r="I8">
-        <v>0.6118807121390761</v>
+        <v>0.2193047983579425</v>
       </c>
       <c r="J8">
-        <v>0.611880712139076</v>
+        <v>0.2193047983579425</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>16.007391</v>
       </c>
       <c r="O8">
-        <v>0.6369874076789748</v>
+        <v>0.6677581000140957</v>
       </c>
       <c r="P8">
-        <v>0.6369874076789748</v>
+        <v>0.6677581000140956</v>
       </c>
       <c r="Q8">
-        <v>1.620869283482</v>
+        <v>0.455317786802</v>
       </c>
       <c r="R8">
-        <v>14.587823551338</v>
+        <v>4.097860081217999</v>
       </c>
       <c r="S8">
-        <v>0.3897603086342351</v>
+        <v>0.1464425554754741</v>
       </c>
       <c r="T8">
-        <v>0.389760308634235</v>
+        <v>0.1464425554754741</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.3037726666666667</v>
+        <v>0.08533266666666667</v>
       </c>
       <c r="H9">
-        <v>0.9113180000000001</v>
+        <v>0.255998</v>
       </c>
       <c r="I9">
-        <v>0.6118807121390761</v>
+        <v>0.2193047983579425</v>
       </c>
       <c r="J9">
-        <v>0.611880712139076</v>
+        <v>0.2193047983579425</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.044517</v>
+        <v>0.2821243333333334</v>
       </c>
       <c r="N9">
-        <v>0.133551</v>
+        <v>0.846373</v>
       </c>
       <c r="O9">
-        <v>0.005314439141452519</v>
+        <v>0.0353069670368663</v>
       </c>
       <c r="P9">
-        <v>0.005314439141452519</v>
+        <v>0.0353069670368663</v>
       </c>
       <c r="Q9">
-        <v>0.013523047802</v>
+        <v>0.02407442169488889</v>
       </c>
       <c r="R9">
-        <v>0.121707430218</v>
+        <v>0.216669795254</v>
       </c>
       <c r="S9">
-        <v>0.003251802806491747</v>
+        <v>0.007742987286650486</v>
       </c>
       <c r="T9">
-        <v>0.003251802806491747</v>
+        <v>0.007742987286650486</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3037726666666667</v>
+        <v>0.08533266666666667</v>
       </c>
       <c r="H10">
-        <v>0.9113180000000001</v>
+        <v>0.255998</v>
       </c>
       <c r="I10">
-        <v>0.6118807121390761</v>
+        <v>0.2193047983579425</v>
       </c>
       <c r="J10">
-        <v>0.611880712139076</v>
+        <v>0.2193047983579425</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.450641333333333</v>
+        <v>1.812871333333334</v>
       </c>
       <c r="N10">
-        <v>7.351923999999999</v>
+        <v>5.438614</v>
       </c>
       <c r="O10">
-        <v>0.2925575448374341</v>
+        <v>0.2268751073394822</v>
       </c>
       <c r="P10">
-        <v>0.2925575448374341</v>
+        <v>0.2268751073394822</v>
       </c>
       <c r="Q10">
-        <v>0.7444378528702221</v>
+        <v>0.1546971451968889</v>
       </c>
       <c r="R10">
-        <v>6.699940675832</v>
+        <v>1.392274306772</v>
       </c>
       <c r="S10">
-        <v>0.1790103188767889</v>
+        <v>0.04975479966752171</v>
       </c>
       <c r="T10">
-        <v>0.1790103188767889</v>
+        <v>0.0497547996675217</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1098,356 +1098,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.3037726666666667</v>
+        <v>0.08533266666666667</v>
       </c>
       <c r="H11">
-        <v>0.9113180000000001</v>
+        <v>0.255998</v>
       </c>
       <c r="I11">
-        <v>0.6118807121390761</v>
+        <v>0.2193047983579425</v>
       </c>
       <c r="J11">
-        <v>0.611880712139076</v>
+        <v>0.2193047983579425</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09125299999999999</v>
+        <v>0.170629</v>
       </c>
       <c r="N11">
-        <v>0.273759</v>
+        <v>0.511887</v>
       </c>
       <c r="O11">
-        <v>0.01089378248702668</v>
+        <v>0.02135367909373335</v>
       </c>
       <c r="P11">
-        <v>0.01089378248702668</v>
+        <v>0.02135367909373335</v>
       </c>
       <c r="Q11">
-        <v>0.02772016715133333</v>
+        <v>0.01456022758066667</v>
       </c>
       <c r="R11">
-        <v>0.249481504362</v>
+        <v>0.131042048226</v>
       </c>
       <c r="S11">
-        <v>0.006665695386050079</v>
+        <v>0.004682964287851405</v>
       </c>
       <c r="T11">
-        <v>0.006665695386050079</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.024194</v>
-      </c>
-      <c r="H12">
-        <v>0.07258200000000001</v>
-      </c>
-      <c r="I12">
-        <v>0.04873329161552655</v>
-      </c>
-      <c r="J12">
-        <v>0.04873329161552654</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.4544046666666666</v>
-      </c>
-      <c r="N12">
-        <v>1.363214</v>
-      </c>
-      <c r="O12">
-        <v>0.05424682585511192</v>
-      </c>
-      <c r="P12">
-        <v>0.05424682585511193</v>
-      </c>
-      <c r="Q12">
-        <v>0.01099386650533333</v>
-      </c>
-      <c r="R12">
-        <v>0.09894479854800001</v>
-      </c>
-      <c r="S12">
-        <v>0.002643626383613855</v>
-      </c>
-      <c r="T12">
-        <v>0.002643626383613855</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.024194</v>
-      </c>
-      <c r="H13">
-        <v>0.07258200000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.04873329161552655</v>
-      </c>
-      <c r="J13">
-        <v>0.04873329161552654</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>5.335796999999999</v>
-      </c>
-      <c r="N13">
-        <v>16.007391</v>
-      </c>
-      <c r="O13">
-        <v>0.6369874076789748</v>
-      </c>
-      <c r="P13">
-        <v>0.6369874076789748</v>
-      </c>
-      <c r="Q13">
-        <v>0.129094272618</v>
-      </c>
-      <c r="R13">
-        <v>1.161848453562</v>
-      </c>
-      <c r="S13">
-        <v>0.03104249309383778</v>
-      </c>
-      <c r="T13">
-        <v>0.03104249309383777</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.024194</v>
-      </c>
-      <c r="H14">
-        <v>0.07258200000000001</v>
-      </c>
-      <c r="I14">
-        <v>0.04873329161552655</v>
-      </c>
-      <c r="J14">
-        <v>0.04873329161552654</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.044517</v>
-      </c>
-      <c r="N14">
-        <v>0.133551</v>
-      </c>
-      <c r="O14">
-        <v>0.005314439141452519</v>
-      </c>
-      <c r="P14">
-        <v>0.005314439141452519</v>
-      </c>
-      <c r="Q14">
-        <v>0.001077044298</v>
-      </c>
-      <c r="R14">
-        <v>0.009693398682000001</v>
-      </c>
-      <c r="S14">
-        <v>0.0002589901124533742</v>
-      </c>
-      <c r="T14">
-        <v>0.0002589901124533741</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.024194</v>
-      </c>
-      <c r="H15">
-        <v>0.07258200000000001</v>
-      </c>
-      <c r="I15">
-        <v>0.04873329161552655</v>
-      </c>
-      <c r="J15">
-        <v>0.04873329161552654</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>2.450641333333333</v>
-      </c>
-      <c r="N15">
-        <v>7.351923999999999</v>
-      </c>
-      <c r="O15">
-        <v>0.2925575448374341</v>
-      </c>
-      <c r="P15">
-        <v>0.2925575448374341</v>
-      </c>
-      <c r="Q15">
-        <v>0.05929081641866667</v>
-      </c>
-      <c r="R15">
-        <v>0.5336173477680001</v>
-      </c>
-      <c r="S15">
-        <v>0.01425729214688516</v>
-      </c>
-      <c r="T15">
-        <v>0.01425729214688516</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.024194</v>
-      </c>
-      <c r="H16">
-        <v>0.07258200000000001</v>
-      </c>
-      <c r="I16">
-        <v>0.04873329161552655</v>
-      </c>
-      <c r="J16">
-        <v>0.04873329161552654</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.09125299999999999</v>
-      </c>
-      <c r="N16">
-        <v>0.273759</v>
-      </c>
-      <c r="O16">
-        <v>0.01089378248702668</v>
-      </c>
-      <c r="P16">
-        <v>0.01089378248702668</v>
-      </c>
-      <c r="Q16">
-        <v>0.002207775082</v>
-      </c>
-      <c r="R16">
-        <v>0.019869975738</v>
-      </c>
-      <c r="S16">
-        <v>0.0005308898787363871</v>
-      </c>
-      <c r="T16">
-        <v>0.0005308898787363871</v>
+        <v>0.004682964287851405</v>
       </c>
     </row>
   </sheetData>
